--- a/input/University fees.xlsx
+++ b/input/University fees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyendu/swissinfo/2018_04_17_universityRanking/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57690416-45CD-AD43-808E-159312CA221C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{635284EA-FEE0-674F-9C7B-001AFF109B77}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33380" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1187,11 +1187,14 @@
       <c r="C10">
         <v>7</v>
       </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
       <c r="E10">
         <v>16</v>
       </c>
       <c r="F10">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
